--- a/kapitel-3/fuellmengen_normal.xlsx
+++ b/kapitel-3/fuellmengen_normal.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65ff0e6be96a7d93/Documents/Juri-Apps/repo/kapitel-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{88D5FAE8-35A9-499A-A3FF-3775AF93E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63969DB0-50A4-40A1-A01F-4048071EE3B1}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{88D5FAE8-35A9-499A-A3FF-3775AF93E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF608A72-8213-49E4-8617-0ECF440675FB}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="825" windowWidth="28215" windowHeight="14775" xr2:uid="{CD8F502B-BEAA-4B57-B499-F15DBE49A54E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD8F502B-BEAA-4B57-B499-F15DBE49A54E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fillfix" sheetId="1" r:id="rId1"/>
+    <sheet name="Ohne_Fillfix" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,15 +89,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,13 +111,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,594 +480,594 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>AVERAGE(D2:H2)</f>
         <v>498.6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <f>MAX(D2:H2)-MIN(D2:H2)</f>
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>496</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>500</v>
       </c>
-      <c r="F2">
-        <v>499</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2">
+        <v>499</v>
+      </c>
+      <c r="G2" s="2">
         <v>497</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f t="shared" ref="B3:B11" si="0">AVERAGE(D3:H3)</f>
         <v>505.4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C11" si="1">MAX(D3:H3)-MIN(D3:H3)</f>
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>505</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>510</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>508</v>
       </c>
-      <c r="G3">
-        <v>502</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="2">
+        <v>502</v>
+      </c>
+      <c r="H3" s="2">
         <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>497</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>489</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>495</v>
       </c>
-      <c r="F4">
-        <v>499</v>
-      </c>
-      <c r="G4">
-        <v>502</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="2">
+        <v>499</v>
+      </c>
+      <c r="G4" s="2">
+        <v>502</v>
+      </c>
+      <c r="H4" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>501</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>501</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>500</v>
       </c>
-      <c r="G5">
-        <v>502</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="2">
+        <v>502</v>
+      </c>
+      <c r="H5" s="2">
         <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>510</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>501</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>500</v>
       </c>
-      <c r="G6">
-        <v>502</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="2">
+        <v>502</v>
+      </c>
+      <c r="H6" s="2">
         <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>501</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>511</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>501</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>490</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>498</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>497</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>498</v>
       </c>
-      <c r="E8">
-        <v>499</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2">
+        <v>499</v>
+      </c>
+      <c r="F8" s="2">
         <v>489</v>
       </c>
-      <c r="G8">
-        <v>502</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="2">
+        <v>502</v>
+      </c>
+      <c r="H8" s="2">
         <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>501</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>500</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>501</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>500</v>
       </c>
-      <c r="G9">
-        <v>502</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="2">
+        <v>502</v>
+      </c>
+      <c r="H9" s="2">
         <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>501</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>498</v>
       </c>
-      <c r="E10">
-        <v>499</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="2">
+        <v>499</v>
+      </c>
+      <c r="F10" s="2">
         <v>507</v>
       </c>
-      <c r="G10">
-        <v>499</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="2">
+        <v>499</v>
+      </c>
+      <c r="H10" s="2">
         <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>498.8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>500</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>497</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>496</v>
       </c>
-      <c r="G11">
-        <v>502</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="2">
+        <v>502</v>
+      </c>
+      <c r="H11" s="2">
         <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <f t="shared" ref="B12:B13" si="2">AVERAGE(D12:H12)</f>
         <v>500.8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <f t="shared" ref="C12:C13" si="3">MAX(D12:H12)-MIN(D12:H12)</f>
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>506</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>501</v>
       </c>
-      <c r="F12">
-        <v>499</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2">
+        <v>499</v>
+      </c>
+      <c r="G12" s="2">
         <v>496</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f t="shared" si="2"/>
         <v>503.6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>500</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>495</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>510</v>
       </c>
-      <c r="G13">
-        <v>502</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="2">
+        <v>502</v>
+      </c>
+      <c r="H13" s="2">
         <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f t="shared" ref="B14:B21" si="4">AVERAGE(D14:H14)</f>
         <v>498.4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:C21" si="5">MAX(D14:H14)-MIN(D14:H14)</f>
         <v>18</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>488</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>496</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>500</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>506</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f t="shared" si="4"/>
         <v>498</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>498</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>494</v>
       </c>
-      <c r="F15">
-        <v>502</v>
-      </c>
-      <c r="G15">
-        <v>499</v>
-      </c>
-      <c r="H15">
+      <c r="F15" s="2">
+        <v>502</v>
+      </c>
+      <c r="G15" s="2">
+        <v>499</v>
+      </c>
+      <c r="H15" s="2">
         <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f t="shared" si="4"/>
         <v>503</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>494</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>509</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>495</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>512</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f t="shared" si="4"/>
         <v>499</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>506</v>
       </c>
-      <c r="E17">
-        <v>499</v>
-      </c>
-      <c r="F17">
-        <v>499</v>
-      </c>
-      <c r="G17">
-        <v>499</v>
-      </c>
-      <c r="H17">
+      <c r="E17" s="2">
+        <v>499</v>
+      </c>
+      <c r="F17" s="2">
+        <v>499</v>
+      </c>
+      <c r="G17" s="2">
+        <v>499</v>
+      </c>
+      <c r="H17" s="2">
         <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <f t="shared" si="4"/>
         <v>497.2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>489</v>
       </c>
-      <c r="E18">
-        <v>499</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="2">
+        <v>499</v>
+      </c>
+      <c r="F18" s="2">
         <v>500</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>495</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <f t="shared" si="4"/>
         <v>504.6</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>507</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>503</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>505</v>
       </c>
-      <c r="G19">
-        <v>499</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="2">
+        <v>499</v>
+      </c>
+      <c r="H19" s="2">
         <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <f t="shared" si="4"/>
         <v>496.8</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D20">
-        <v>499</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="2">
+        <v>499</v>
+      </c>
+      <c r="E20" s="2">
         <v>487</v>
       </c>
-      <c r="F20">
-        <v>502</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="2">
+        <v>502</v>
+      </c>
+      <c r="G20" s="2">
         <v>495</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <f t="shared" si="4"/>
         <v>498</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>498</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>496</v>
       </c>
-      <c r="F21">
-        <v>499</v>
-      </c>
-      <c r="G21">
-        <v>499</v>
-      </c>
-      <c r="H21">
+      <c r="F21" s="2">
+        <v>499</v>
+      </c>
+      <c r="G21" s="2">
+        <v>499</v>
+      </c>
+      <c r="H21" s="2">
         <v>498</v>
       </c>
     </row>
